--- a/Excel-XLSX/UN-BAR.xlsx
+++ b/Excel-XLSX/UN-BAR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,49 @@
     <t>1</t>
   </si>
   <si>
-    <t>P5tsqn</t>
+    <t>FvQ3B8</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>GUY</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>BAR</t>
+  </si>
+  <si>
+    <t>BRB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>2018</t>
@@ -105,36 +147,12 @@
     <t>TTO</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>BAR</t>
-  </si>
-  <si>
-    <t>BRB</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>4</t>
   </si>
   <si>
     <t>2019</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>207</t>
   </si>
   <si>
@@ -144,25 +162,16 @@
     <t>VEN</t>
   </si>
   <si>
-    <t>4</t>
+    <t>6</t>
   </si>
   <si>
     <t>2020</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>GUY</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -547,7 +556,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -649,46 +658,46 @@
         <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="N2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -702,10 +711,10 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
@@ -717,46 +726,46 @@
         <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -770,10 +779,10 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>39</v>
@@ -785,46 +794,46 @@
         <v>41</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="N4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="P4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -838,10 +847,10 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>39</v>
@@ -853,46 +862,46 @@
         <v>41</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="N5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="P5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -906,7 +915,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>44</v>
@@ -924,43 +933,43 @@
         <v>47</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="N6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="P6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -977,58 +986,194 @@
         <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="N7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="P7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="P8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>33</v>
+      <c r="O9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-BAR.xlsx
+++ b/Excel-XLSX/UN-BAR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>FvQ3B8</t>
+    <t>9JoB8e</t>
   </si>
   <si>
     <t>2021</t>
@@ -132,6 +132,18 @@
     <t>3</t>
   </si>
   <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>JAM</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>2018</t>
   </si>
   <si>
@@ -147,12 +159,12 @@
     <t>TTO</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>2019</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>207</t>
   </si>
   <si>
@@ -162,16 +174,16 @@
     <t>VEN</t>
   </si>
   <si>
-    <t>6</t>
+    <t>7</t>
   </si>
   <si>
     <t>2020</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -556,7 +568,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -696,8 +708,8 @@
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>34</v>
+      <c r="V2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -782,19 +794,19 @@
         <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>28</v>
@@ -832,8 +844,8 @@
       <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>34</v>
+      <c r="V4" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -847,22 +859,22 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>28</v>
@@ -900,8 +912,8 @@
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>34</v>
+      <c r="V5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -918,19 +930,19 @@
         <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>28</v>
@@ -968,8 +980,8 @@
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>34</v>
+      <c r="V6" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -986,19 +998,19 @@
         <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>28</v>
@@ -1036,8 +1048,8 @@
       <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>34</v>
+      <c r="V7" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1051,22 +1063,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -1104,8 +1116,8 @@
       <c r="U8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>34</v>
+      <c r="V8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1119,22 +1131,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>28</v>
@@ -1149,10 +1161,10 @@
         <v>31</v>
       </c>
       <c r="N9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>32</v>
@@ -1173,6 +1185,74 @@
         <v>34</v>
       </c>
       <c r="V9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V10" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-BAR.xlsx
+++ b/Excel-XLSX/UN-BAR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -90,6 +90,66 @@
     <t>9JoB8e</t>
   </si>
   <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>TRT</t>
+  </si>
+  <si>
+    <t>TTO</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>BAR</t>
+  </si>
+  <si>
+    <t>BRB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>Venezuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
     <t>2021</t>
   </si>
   <si>
@@ -102,34 +162,16 @@
     <t>GUY</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>BAR</t>
-  </si>
-  <si>
-    <t>BRB</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>2023</t>
   </si>
   <si>
-    <t>3</t>
+    <t>8</t>
   </si>
   <si>
     <t>95</t>
@@ -141,49 +183,16 @@
     <t>JAM</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>TRT</t>
-  </si>
-  <si>
-    <t>TTO</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>Venezuela (Bolivarian Republic of)</t>
-  </si>
-  <si>
-    <t>VEN</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -568,7 +577,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -670,46 +679,46 @@
         <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -723,10 +732,10 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
@@ -738,46 +747,46 @@
         <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -791,61 +800,61 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -859,61 +868,61 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -927,61 +936,61 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -998,58 +1007,58 @@
         <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -1063,61 +1072,61 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -1131,61 +1140,61 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -1202,58 +1211,194 @@
         <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="M11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="2" t="s">
+      <c r="N11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U10" s="1" t="s">
+      <c r="N12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="2" t="s">
-        <v>32</v>
+      <c r="P12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-BAR.xlsx
+++ b/Excel-XLSX/UN-BAR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>9JoB8e</t>
+    <t>k0NUDX</t>
   </si>
   <si>
     <t>2018</t>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>2024</t>
-  </si>
-  <si>
-    <t>11</t>
   </si>
 </sst>
 </file>
@@ -577,7 +574,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1309,7 +1306,7 @@
         <v>34</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>33</v>
@@ -1330,74 +1327,6 @@
         <v>35</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V12" s="2" t="s">
         <v>33</v>
       </c>
     </row>
